--- a/natmiOut/OldD7/LR-pairs_lrc2p/F8-Ldlr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/F8-Ldlr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.841608735025161</v>
+        <v>0.8546833333333335</v>
       </c>
       <c r="H2">
-        <v>0.841608735025161</v>
+        <v>2.56405</v>
       </c>
       <c r="I2">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380014</v>
       </c>
       <c r="J2">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380015</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.49109923226492</v>
+        <v>3.021894333333333</v>
       </c>
       <c r="N2">
-        <v>2.49109923226492</v>
+        <v>9.065683</v>
       </c>
       <c r="O2">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819186</v>
       </c>
       <c r="P2">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819185</v>
       </c>
       <c r="Q2">
-        <v>2.096530873688629</v>
+        <v>2.582762721794445</v>
       </c>
       <c r="R2">
-        <v>2.096530873688629</v>
+        <v>23.24486449615</v>
       </c>
       <c r="S2">
-        <v>0.04314348798264178</v>
+        <v>0.04537198069894675</v>
       </c>
       <c r="T2">
-        <v>0.04314348798264178</v>
+        <v>0.04537198069894675</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.841608735025161</v>
+        <v>0.8546833333333335</v>
       </c>
       <c r="H3">
-        <v>0.841608735025161</v>
+        <v>2.56405</v>
       </c>
       <c r="I3">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380014</v>
       </c>
       <c r="J3">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380015</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.69241937420873</v>
+        <v>5.799695333333333</v>
       </c>
       <c r="N3">
-        <v>5.69241937420873</v>
+        <v>17.399086</v>
       </c>
       <c r="O3">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="P3">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="Q3">
-        <v>4.790789868760528</v>
+        <v>4.956902939811112</v>
       </c>
       <c r="R3">
-        <v>4.790789868760528</v>
+        <v>44.61212645830001</v>
       </c>
       <c r="S3">
-        <v>0.09858733192255822</v>
+        <v>0.08707904238117686</v>
       </c>
       <c r="T3">
-        <v>0.09858733192255822</v>
+        <v>0.08707904238117688</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.841608735025161</v>
+        <v>0.8546833333333335</v>
       </c>
       <c r="H4">
-        <v>0.841608735025161</v>
+        <v>2.56405</v>
       </c>
       <c r="I4">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380014</v>
       </c>
       <c r="J4">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380015</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.90425638559952</v>
+        <v>6.259039333333333</v>
       </c>
       <c r="N4">
-        <v>5.90425638559952</v>
+        <v>18.777118</v>
       </c>
       <c r="O4">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="P4">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="Q4">
-        <v>4.969073747948641</v>
+        <v>5.349496600877778</v>
       </c>
       <c r="R4">
-        <v>4.969073747948641</v>
+        <v>48.1454694079</v>
       </c>
       <c r="S4">
-        <v>0.1022561490603274</v>
+        <v>0.09397582459896794</v>
       </c>
       <c r="T4">
-        <v>0.1022561490603274</v>
+        <v>0.09397582459896796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.841608735025161</v>
+        <v>0.8546833333333335</v>
       </c>
       <c r="H5">
-        <v>0.841608735025161</v>
+        <v>2.56405</v>
       </c>
       <c r="I5">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380014</v>
       </c>
       <c r="J5">
-        <v>0.3271965158245971</v>
+        <v>0.3097546281380015</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.80450811907322</v>
+        <v>5.549851333333334</v>
       </c>
       <c r="N5">
-        <v>4.80450811907322</v>
+        <v>16.649554</v>
       </c>
       <c r="O5">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="P5">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="Q5">
-        <v>4.043516000511328</v>
+        <v>4.743365437077779</v>
       </c>
       <c r="R5">
-        <v>4.043516000511328</v>
+        <v>42.69028893370001</v>
       </c>
       <c r="S5">
-        <v>0.08320954685906969</v>
+        <v>0.0833277804589099</v>
       </c>
       <c r="T5">
-        <v>0.08320954685906969</v>
+        <v>0.0833277804589099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.2343782667345</v>
+        <v>1.251276</v>
       </c>
       <c r="H6">
-        <v>1.2343782667345</v>
+        <v>3.753828</v>
       </c>
       <c r="I6">
-        <v>0.4798955277871004</v>
+        <v>0.453487879032787</v>
       </c>
       <c r="J6">
-        <v>0.4798955277871004</v>
+        <v>0.4534878790327871</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.49109923226492</v>
+        <v>3.021894333333333</v>
       </c>
       <c r="N6">
-        <v>2.49109923226492</v>
+        <v>9.065683</v>
       </c>
       <c r="O6">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819186</v>
       </c>
       <c r="P6">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819185</v>
       </c>
       <c r="Q6">
-        <v>3.074958752586816</v>
+        <v>3.781223853836</v>
       </c>
       <c r="R6">
-        <v>3.074958752586816</v>
+        <v>34.031014684524</v>
       </c>
       <c r="S6">
-        <v>0.06327807887509861</v>
+        <v>0.06642562023484951</v>
       </c>
       <c r="T6">
-        <v>0.06327807887509861</v>
+        <v>0.06642562023484951</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.2343782667345</v>
+        <v>1.251276</v>
       </c>
       <c r="H7">
-        <v>1.2343782667345</v>
+        <v>3.753828</v>
       </c>
       <c r="I7">
-        <v>0.4798955277871004</v>
+        <v>0.453487879032787</v>
       </c>
       <c r="J7">
-        <v>0.4798955277871004</v>
+        <v>0.4534878790327871</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.69241937420873</v>
+        <v>5.799695333333333</v>
       </c>
       <c r="N7">
-        <v>5.69241937420873</v>
+        <v>17.399086</v>
       </c>
       <c r="O7">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="P7">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="Q7">
-        <v>7.026598760661659</v>
+        <v>7.257019577912001</v>
       </c>
       <c r="R7">
-        <v>7.026598760661659</v>
+        <v>65.31317620120801</v>
       </c>
       <c r="S7">
-        <v>0.1445969544231359</v>
+        <v>0.12748571498358</v>
       </c>
       <c r="T7">
-        <v>0.1445969544231359</v>
+        <v>0.1274857149835801</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.2343782667345</v>
+        <v>1.251276</v>
       </c>
       <c r="H8">
-        <v>1.2343782667345</v>
+        <v>3.753828</v>
       </c>
       <c r="I8">
-        <v>0.4798955277871004</v>
+        <v>0.453487879032787</v>
       </c>
       <c r="J8">
-        <v>0.4798955277871004</v>
+        <v>0.4534878790327871</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.90425638559952</v>
+        <v>6.259039333333333</v>
       </c>
       <c r="N8">
-        <v>5.90425638559952</v>
+        <v>18.777118</v>
       </c>
       <c r="O8">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="P8">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="Q8">
-        <v>7.288085763612439</v>
+        <v>7.831785700856</v>
       </c>
       <c r="R8">
-        <v>7.288085763612439</v>
+        <v>70.48607130770399</v>
       </c>
       <c r="S8">
-        <v>0.1499779681305922</v>
+        <v>0.1375827623106783</v>
       </c>
       <c r="T8">
-        <v>0.1499779681305922</v>
+        <v>0.1375827623106783</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.2343782667345</v>
+        <v>1.251276</v>
       </c>
       <c r="H9">
-        <v>1.2343782667345</v>
+        <v>3.753828</v>
       </c>
       <c r="I9">
-        <v>0.4798955277871004</v>
+        <v>0.453487879032787</v>
       </c>
       <c r="J9">
-        <v>0.4798955277871004</v>
+        <v>0.4534878790327871</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.80450811907322</v>
+        <v>5.549851333333334</v>
       </c>
       <c r="N9">
-        <v>4.80450811907322</v>
+        <v>16.649554</v>
       </c>
       <c r="O9">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="P9">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="Q9">
-        <v>5.930580404533434</v>
+        <v>6.944395776968001</v>
       </c>
       <c r="R9">
-        <v>5.930580404533434</v>
+        <v>62.49956199271201</v>
       </c>
       <c r="S9">
-        <v>0.1220425263582737</v>
+        <v>0.1219937815036793</v>
       </c>
       <c r="T9">
-        <v>0.1220425263582737</v>
+        <v>0.1219937815036793</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0832202931143414</v>
+        <v>0.1689346666666667</v>
       </c>
       <c r="H10">
-        <v>0.0832202931143414</v>
+        <v>0.506804</v>
       </c>
       <c r="I10">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="J10">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.49109923226492</v>
+        <v>3.021894333333333</v>
       </c>
       <c r="N10">
-        <v>2.49109923226492</v>
+        <v>9.065683</v>
       </c>
       <c r="O10">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819186</v>
       </c>
       <c r="P10">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819185</v>
       </c>
       <c r="Q10">
-        <v>0.2073100082859975</v>
+        <v>0.5105027119035556</v>
       </c>
       <c r="R10">
-        <v>0.2073100082859975</v>
+        <v>4.594524407132</v>
       </c>
       <c r="S10">
-        <v>0.004266131714736985</v>
+        <v>0.008968117355803908</v>
       </c>
       <c r="T10">
-        <v>0.004266131714736985</v>
+        <v>0.008968117355803907</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0832202931143414</v>
+        <v>0.1689346666666667</v>
       </c>
       <c r="H11">
-        <v>0.0832202931143414</v>
+        <v>0.506804</v>
       </c>
       <c r="I11">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="J11">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.69241937420873</v>
+        <v>5.799695333333333</v>
       </c>
       <c r="N11">
-        <v>5.69241937420873</v>
+        <v>17.399086</v>
       </c>
       <c r="O11">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="P11">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="Q11">
-        <v>0.4737248088514063</v>
+        <v>0.9797695979048889</v>
       </c>
       <c r="R11">
-        <v>0.4737248088514063</v>
+        <v>8.817926381144002</v>
       </c>
       <c r="S11">
-        <v>0.009748552169804749</v>
+        <v>0.01721183557065968</v>
       </c>
       <c r="T11">
-        <v>0.009748552169804749</v>
+        <v>0.01721183557065968</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0832202931143414</v>
+        <v>0.1689346666666667</v>
       </c>
       <c r="H12">
-        <v>0.0832202931143414</v>
+        <v>0.506804</v>
       </c>
       <c r="I12">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="J12">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.90425638559952</v>
+        <v>6.259039333333333</v>
       </c>
       <c r="N12">
-        <v>5.90425638559952</v>
+        <v>18.777118</v>
       </c>
       <c r="O12">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="P12">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="Q12">
-        <v>0.491353947031814</v>
+        <v>1.057368723430222</v>
       </c>
       <c r="R12">
-        <v>0.491353947031814</v>
+        <v>9.516318510871999</v>
       </c>
       <c r="S12">
-        <v>0.01011133362023604</v>
+        <v>0.0185750370741816</v>
       </c>
       <c r="T12">
-        <v>0.01011133362023604</v>
+        <v>0.0185750370741816</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0832202931143414</v>
+        <v>0.1689346666666667</v>
       </c>
       <c r="H13">
-        <v>0.0832202931143414</v>
+        <v>0.506804</v>
       </c>
       <c r="I13">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="J13">
-        <v>0.0323539773527899</v>
+        <v>0.06122536009783416</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.80450811907322</v>
+        <v>5.549851333333334</v>
       </c>
       <c r="N13">
-        <v>4.80450811907322</v>
+        <v>16.649554</v>
       </c>
       <c r="O13">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="P13">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="Q13">
-        <v>0.3998325739395064</v>
+        <v>0.9375622850462223</v>
       </c>
       <c r="R13">
-        <v>0.3998325739395064</v>
+        <v>8.438060565416002</v>
       </c>
       <c r="S13">
-        <v>0.008227959848012131</v>
+        <v>0.01647037009718897</v>
       </c>
       <c r="T13">
-        <v>0.008227959848012131</v>
+        <v>0.01647037009718897</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.412973930540785</v>
+        <v>0.4843330000000001</v>
       </c>
       <c r="H14">
-        <v>0.412973930540785</v>
+        <v>1.452999</v>
       </c>
       <c r="I14">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="J14">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.49109923226492</v>
+        <v>3.021894333333333</v>
       </c>
       <c r="N14">
-        <v>2.49109923226492</v>
+        <v>9.065683</v>
       </c>
       <c r="O14">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819186</v>
       </c>
       <c r="P14">
-        <v>0.1318580299484915</v>
+        <v>0.1464771679819185</v>
       </c>
       <c r="Q14">
-        <v>1.028759041315576</v>
+        <v>1.463603148146334</v>
       </c>
       <c r="R14">
-        <v>1.028759041315576</v>
+        <v>13.172428333317</v>
       </c>
       <c r="S14">
-        <v>0.0211703313760141</v>
+        <v>0.02571144969231838</v>
       </c>
       <c r="T14">
-        <v>0.0211703313760141</v>
+        <v>0.02571144969231837</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.412973930540785</v>
+        <v>0.4843330000000001</v>
       </c>
       <c r="H15">
-        <v>0.412973930540785</v>
+        <v>1.452999</v>
       </c>
       <c r="I15">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="J15">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.69241937420873</v>
+        <v>5.799695333333333</v>
       </c>
       <c r="N15">
-        <v>5.69241937420873</v>
+        <v>17.399086</v>
       </c>
       <c r="O15">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="P15">
-        <v>0.3013092351368703</v>
+        <v>0.2811226515149324</v>
       </c>
       <c r="Q15">
-        <v>2.350820803253495</v>
+        <v>2.808983839879334</v>
       </c>
       <c r="R15">
-        <v>2.350820803253495</v>
+        <v>25.280854558914</v>
       </c>
       <c r="S15">
-        <v>0.04837639662137143</v>
+        <v>0.04934605857951584</v>
       </c>
       <c r="T15">
-        <v>0.04837639662137143</v>
+        <v>0.04934605857951584</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.412973930540785</v>
+        <v>0.4843330000000001</v>
       </c>
       <c r="H16">
-        <v>0.412973930540785</v>
+        <v>1.452999</v>
       </c>
       <c r="I16">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="J16">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.90425638559952</v>
+        <v>6.259039333333333</v>
       </c>
       <c r="N16">
-        <v>5.90425638559952</v>
+        <v>18.777118</v>
       </c>
       <c r="O16">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="P16">
-        <v>0.3125221208502866</v>
+        <v>0.303387959572633</v>
       </c>
       <c r="Q16">
-        <v>2.438303966481562</v>
+        <v>3.031459297431334</v>
       </c>
       <c r="R16">
-        <v>2.438303966481562</v>
+        <v>27.283133676882</v>
       </c>
       <c r="S16">
-        <v>0.05017667003913086</v>
+        <v>0.05325433558880514</v>
       </c>
       <c r="T16">
-        <v>0.05017667003913086</v>
+        <v>0.05325433558880514</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.412973930540785</v>
+        <v>0.4843330000000001</v>
       </c>
       <c r="H17">
-        <v>0.412973930540785</v>
+        <v>1.452999</v>
       </c>
       <c r="I17">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="J17">
-        <v>0.1605539790355127</v>
+        <v>0.1755321327313773</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.80450811907322</v>
+        <v>5.549851333333334</v>
       </c>
       <c r="N17">
-        <v>4.80450811907322</v>
+        <v>16.649554</v>
       </c>
       <c r="O17">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="P17">
-        <v>0.2543106140643518</v>
+        <v>0.2690122209305161</v>
       </c>
       <c r="Q17">
-        <v>1.984136602248782</v>
+        <v>2.687976145827334</v>
       </c>
       <c r="R17">
-        <v>1.984136602248782</v>
+        <v>24.191785312446</v>
       </c>
       <c r="S17">
-        <v>0.04083058099899629</v>
+        <v>0.04722028887073795</v>
       </c>
       <c r="T17">
-        <v>0.04083058099899629</v>
+        <v>0.04722028887073794</v>
       </c>
     </row>
   </sheetData>
